--- a/Amsterdam_Districts_and_Neighborhoods.xlsx
+++ b/Amsterdam_Districts_and_Neighborhoods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Zuidas</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>Nieuw-West</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nieuw-West </t>
   </si>
   <si>
     <t>De Aker</t>
@@ -526,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,7 +615,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
@@ -629,7 +626,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -637,7 +634,7 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -645,7 +642,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -658,15 +655,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -674,31 +671,31 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -706,7 +703,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -714,7 +711,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -722,7 +719,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -730,7 +727,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -738,7 +735,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -746,7 +743,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -754,7 +751,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -762,47 +759,47 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -818,7 +815,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -826,87 +823,87 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
         <v>50</v>
-      </c>
-      <c r="B43" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
